--- a/data/trans_orig/Q57-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la autopercepción de felicidad</t>
+          <t>Puntuación media de la autopercepción de felicidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>8,76</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 8,81</t>
+          <t>8,33; 8,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 8,88</t>
+          <t>8,62; 8,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,39</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 8,56</t>
+          <t>8,21; 8,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,29; 8,52</t>
+          <t>8,26; 8,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,27 +766,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>8,39</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,37</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 8,53</t>
+          <t>8,22; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 8,46</t>
+          <t>8,27; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 8,45</t>
+          <t>8,28; 8,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,2</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 8,42</t>
+          <t>8,12; 8,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 8,06</t>
+          <t>7,86; 8,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,19</t>
+          <t>8,03; 8,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,6</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,81</t>
+          <t>7,54; 7,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,6</t>
+          <t>7,39; 7,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,67</t>
+          <t>7,5; 7,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,55</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,27</t>
+          <t>7,19; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,79</t>
+          <t>7,74; 8,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 6,76</t>
+          <t>6,67; 7,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,33</t>
+          <t>7,13; 7,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 6,94</t>
+          <t>6,97; 7,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,49</t>
+          <t>7,28; 7,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,99</t>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,59; 7,01</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 7,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 6,59</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 7,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 6,71</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 7,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,21</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,63; 7,74</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 8,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 8,38</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,39; 7,51</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 7,93</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 7,93</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,52; 7,6</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 8,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 8,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q57-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Edad-trans_orig.xlsx
@@ -639,22 +639,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 8,42</t>
+          <t>8,19; 8,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 9,08</t>
+          <t>8,73; 9,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,33</t>
+          <t>8,08; 8,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 8,8</t>
+          <t>8,31; 8,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 8,9</t>
+          <t>8,63; 8,88</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,04</t>
+          <t>7,84; 8,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 8,58</t>
+          <t>8,19; 8,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 8,12</t>
+          <t>7,91; 8,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 8,53</t>
+          <t>8,22; 8,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 8,05</t>
+          <t>7,9; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 8,49</t>
+          <t>8,25; 8,5</t>
         </is>
       </c>
     </row>
@@ -799,22 +799,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 7,99</t>
+          <t>7,75; 7,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 8,54</t>
+          <t>8,23; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 7,94</t>
+          <t>7,74; 7,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 8,47</t>
+          <t>8,25; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,6</t>
+          <t>7,31; 7,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 8,75</t>
+          <t>8,11; 8,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,51</t>
+          <t>7,27; 7,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 8,06</t>
+          <t>7,86; 8,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,53</t>
+          <t>7,34; 7,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,51</t>
+          <t>8,04; 8,55</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,7</t>
+          <t>7,42; 7,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,22 +969,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,23</t>
+          <t>6,92; 7,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,62</t>
+          <t>7,4; 7,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,42</t>
+          <t>7,2; 7,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,68</t>
+          <t>7,5; 7,7</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,54</t>
+          <t>7,18; 7,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,02</t>
+          <t>7,74; 8,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,56</t>
+          <t>7,15; 7,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,25</t>
+          <t>6,96; 7,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,27 +1119,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 7,01</t>
+          <t>6,6; 7,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,61</t>
+          <t>7,29; 7,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 6,59</t>
+          <t>6,13; 6,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,18</t>
+          <t>6,88; 7,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,71</t>
+          <t>6,36; 6,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1209,22 +1209,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,38; 7,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,93</t>
+          <t>7,7; 7,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 8,12</t>
+          <t>7,95; 8,13</t>
         </is>
       </c>
     </row>
